--- a/file/批量添加用户信息.xlsx
+++ b/file/批量添加用户信息.xlsx
@@ -29,14 +29,13 @@
     <definedName name="外语学院">Col_SpeInfo!$H$2:$H$3</definedName>
     <definedName name="机电与材料工程学院">Col_SpeInfo!$I$2:$I$5</definedName>
     <definedName name="建筑与土木工程学院">Col_SpeInfo!$J$2:$J$5</definedName>
-    <definedName name="t01">Col_SpeInfo!$K$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,9 +108,6 @@
     <t>建筑与土木工程学院</t>
   </si>
   <si>
-    <t>t01</t>
-  </si>
-  <si>
     <t>环境设计</t>
   </si>
   <si>
@@ -142,9 +138,6 @@
     <t>土木工程</t>
   </si>
   <si>
-    <t>t01-01</t>
-  </si>
-  <si>
     <t>视觉传达设计</t>
   </si>
   <si>
@@ -229,31 +222,40 @@
     <t>大数据</t>
   </si>
   <si>
-    <t>1801701</t>
+    <t>1801312</t>
+  </si>
+  <si>
+    <t>2009202</t>
+  </si>
+  <si>
+    <t>1909211</t>
+  </si>
+  <si>
+    <t>2009211</t>
+  </si>
+  <si>
+    <t>2009201</t>
   </si>
   <si>
     <t>1801301</t>
   </si>
   <si>
-    <t>1801712</t>
-  </si>
-  <si>
-    <t>000101</t>
-  </si>
-  <si>
-    <t>1801702</t>
-  </si>
-  <si>
-    <t>t010230</t>
-  </si>
-  <si>
-    <t>1801312</t>
+    <t>1909212</t>
+  </si>
+  <si>
+    <t>2009212</t>
+  </si>
+  <si>
+    <t>1909201</t>
+  </si>
+  <si>
+    <t>1802000</t>
+  </si>
+  <si>
+    <t>1909202</t>
   </si>
   <si>
     <t>1801311</t>
-  </si>
-  <si>
-    <t>1801711</t>
   </si>
 </sst>
 </file>
@@ -704,22 +706,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -729,32 +731,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -833,152 +840,142 @@
       <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
